--- a/data/trans_camb/P16B09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1079,22 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,14</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,16; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,28; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,14; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,72; 0,0</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,04%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,6%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,09%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,14%</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,16; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,28; 0,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,14; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,72; 0,0</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>6,56</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6,56</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,93</t>
         </is>
       </c>
     </row>
@@ -1263,17 +1263,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,34; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,92; 6,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,47</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,56%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,01%</t>
         </is>
       </c>
     </row>
@@ -1339,17 +1339,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 27,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,34; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,95; 6,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,69</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 6,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 4,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 4,74</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,88%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,81</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,19</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 6,66</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,18</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 4,52</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 4,97</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 7,9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 7,79</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 2,35</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,72; 2,24</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 3,15</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 2,83</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,23%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 8,58</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 8,44</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 2,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,75; 2,29</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 3,26</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 2,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 6,24</t>
+          <t>-5,65; 5,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,56</t>
+          <t>0,0; 8,73</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 4,32</t>
+          <t>-4,68; 2,66</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,74</t>
+          <t>0,0; 5,67</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 6,66</t>
+          <t>-5,66; 5,47</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,18</t>
+          <t>0,0; 9,57</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 4,52</t>
+          <t>-4,75; 2,73</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,97</t>
+          <t>0,0; 6,01</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>2,23</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,9</t>
+          <t>0,0; 8,97</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,79</t>
+          <t>0,0; 8,97</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,35</t>
+          <t>0,0; 11,14</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 2,24</t>
+          <t>0,0; 12,12</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,15</t>
+          <t>0,0; 8,41</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,83</t>
+          <t>0,0; 7,21</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>2,28%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>0,0; 9,85</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,86</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 12,54</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 13,81</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,18</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 7,9</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 7,79</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 2,35</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-4,72; 2,24</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 3,15</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 2,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-0,01%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>0,84; 8,58</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>0,84; 8,44</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-2,61; 2,43</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-4,75; 2,29</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-1,21; 3,26</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>-2,57; 2,92</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P16B09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Edad-trans_camb.xlsx
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 0,0</t>
+          <t>-28,2; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 0,0</t>
+          <t>-35,8; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 0,0</t>
+          <t>-25,49; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-30,72; 0,0</t>
+          <t>-30,71; 0,0</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 0,0</t>
+          <t>-28,2; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 0,0</t>
+          <t>-35,8; 0,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 0,0</t>
+          <t>-25,49; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,72; 0,0</t>
+          <t>-30,71; 0,0</t>
         </is>
       </c>
     </row>
@@ -1263,17 +1263,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,07</t>
+          <t>0,0; 25,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,47</t>
+          <t>0,0; 20,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 0,0</t>
+          <t>-13,49; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 6,08</t>
+          <t>-4,93; 6,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,47</t>
+          <t>0,0; 10,33</t>
         </is>
       </c>
     </row>
@@ -1339,17 +1339,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,67</t>
+          <t>0,0; 34,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,33</t>
+          <t>0,0; 26,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 0,0</t>
+          <t>-13,49; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 6,49</t>
+          <t>-5,1; 6,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,69</t>
+          <t>0,0; 11,52</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 5,15</t>
+          <t>-5,86; 3,56</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,73</t>
+          <t>0,0; 8,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,66</t>
+          <t>-4,72; 2,66</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,67</t>
+          <t>0,0; 5,38</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 5,47</t>
+          <t>-6,07; 3,69</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,57</t>
+          <t>0,0; 9,69</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 2,73</t>
+          <t>-4,81; 2,73</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,01</t>
+          <t>0,0; 5,68</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,97</t>
+          <t>0,0; 10,65</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,97</t>
+          <t>0,0; 10,62</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,14</t>
+          <t>0,0; 11,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,12</t>
+          <t>0,0; 11,22</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,41</t>
+          <t>0,0; 7,84</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,21</t>
+          <t>0,0; 8,29</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,85</t>
+          <t>0,0; 11,92</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,86</t>
+          <t>0,0; 11,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,54</t>
+          <t>0,0; 12,64</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,81</t>
+          <t>0,0; 12,64</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,18</t>
+          <t>0,0; 8,51</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,77</t>
+          <t>0,0; 9,04</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,9</t>
+          <t>0,86; 7,98</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,79</t>
+          <t>0,86; 7,9</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,35</t>
+          <t>-2,57; 2,43</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 2,24</t>
+          <t>-5,73; 2,08</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,15</t>
+          <t>-1,24; 3,06</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,83</t>
+          <t>-2,28; 3,04</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,58</t>
+          <t>0,86; 8,67</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,44</t>
+          <t>0,87; 8,57</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,43</t>
+          <t>-2,59; 2,5</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 2,29</t>
+          <t>-5,83; 2,13</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,26</t>
+          <t>-1,24; 3,17</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 2,92</t>
+          <t>-2,26; 3,13</t>
         </is>
       </c>
     </row>
